--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2651.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2651.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.853379320924965</v>
+        <v>2.032808780670166</v>
       </c>
       <c r="B1">
-        <v>1.398711658017263</v>
+        <v>2.296585559844971</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.312442302703857</v>
       </c>
       <c r="D1">
-        <v>1.420317871508916</v>
+        <v>2.767592191696167</v>
       </c>
       <c r="E1">
-        <v>0.8483946504845725</v>
+        <v>1.260187387466431</v>
       </c>
     </row>
   </sheetData>
